--- a/Writing/duFMEA.xlsx
+++ b/Writing/duFMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssmba\Code\PhD\systematic_review\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9DCBE5-7DD6-4B90-A139-484A2AB3C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC223E61-FB90-475B-9164-CDA9D539C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
